--- a/漢字（かんじ）/a.xlsx
+++ b/漢字（かんじ）/a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E50B16B-67A8-42FE-88DC-81E98D69089F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E95290-9895-4976-AD42-F1C397B8386C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="11652" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="あ" sheetId="1" r:id="rId1"/>
@@ -1117,13 +1117,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>一応｜いちおう
-対応｜たいおう
-応援｜おうえん
-応援団｜おうえんだん</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>意味｜いみ
 意見｜いけん
 意識｜いしき
@@ -1131,6 +1124,15 @@
 得意｜とくい
 意義｜いぎ
 意外｜いがい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一応｜いちおう
+対応｜たいおう
+応援｜おうえん
+応援団｜おうえんだん
+応対｜おうたい
+応募｜おうぼ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1765,7 +1767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA29664E-66AA-45E6-B520-2E08C5DE1813}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1866,7 +1868,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -2583,8 +2585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42467D9A-CBAF-49BD-9F64-5257C4006C93}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2732,7 +2734,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="108" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>146</v>
       </c>
@@ -2740,7 +2742,7 @@
         <v>199</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/a.xlsx
+++ b/漢字（かんじ）/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E95290-9895-4976-AD42-F1C397B8386C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258DFD09-C8A4-41BB-ACE0-12CA81C79373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>把握｜はあく</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>握</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1127,12 +1123,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>把握｜はあく
+握手｜あくしゅ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>一応｜いちおう
 対応｜たいおう
 応援｜おうえん
 応援団｜おうえんだん
 応対｜おうたい
-応募｜おうぼ</t>
+応募｜おうぼ
+応用｜おうよう</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1513,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1551,7 +1553,7 @@
         <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>29</v>
@@ -1571,7 +1573,7 @@
         <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
@@ -1588,7 +1590,7 @@
         <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>136</v>
@@ -1608,7 +1610,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>32</v>
@@ -1662,10 +1664,10 @@
         <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>36</v>
@@ -1724,15 +1726,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="E14" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1837,7 +1839,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1868,7 +1870,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -1922,10 +1924,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -1942,10 +1944,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -1965,16 +1967,16 @@
         <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1988,13 +1990,13 @@
         <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -2014,7 +2016,7 @@
         <v>27</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -2199,10 +2201,10 @@
         <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2237,7 +2239,7 @@
         <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2283,13 +2285,13 @@
     </row>
     <row r="13" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2300,18 +2302,18 @@
         <v>160</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2356,13 +2358,13 @@
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>47</v>
@@ -2376,13 +2378,13 @@
     </row>
     <row r="3" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>47</v>
@@ -2431,7 +2433,7 @@
         <v>109</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -2483,10 +2485,10 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -2536,10 +2538,10 @@
         <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -2550,7 +2552,7 @@
         <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2569,10 +2571,10 @@
         <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2585,8 +2587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42467D9A-CBAF-49BD-9F64-5257C4006C93}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2623,7 +2625,7 @@
         <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>161</v>
@@ -2643,7 +2645,7 @@
         <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>167</v>
@@ -2683,7 +2685,7 @@
         <v>179</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>175</v>
@@ -2709,7 +2711,7 @@
         <v>119</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2734,12 +2736,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="108" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="126" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>238</v>

--- a/漢字（かんじ）/a.xlsx
+++ b/漢字（かんじ）/a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258DFD09-C8A4-41BB-ACE0-12CA81C79373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4D1B91-CE11-4654-A7C6-E2AB55D79343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="あ" sheetId="1" r:id="rId1"/>
@@ -933,14 +933,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>案内｜あんない
-案外｜あんがい
-事案｜じあん
-図案｜ずあん
-立案｜りつあん</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>売</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1135,6 +1127,16 @@
 応対｜おうたい
 応募｜おうぼ
 応用｜おうよう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>案内｜あんない
+案外｜あんがい
+事案｜じあん
+図案｜ずあん
+立案｜りつあん
+答案｜とうあん
+答案用紙｜とうあんようし</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1515,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1545,7 +1547,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="79.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="144" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>89</v>
       </c>
@@ -1553,7 +1555,7 @@
         <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>29</v>
@@ -1573,7 +1575,7 @@
         <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
@@ -1590,7 +1592,7 @@
         <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>136</v>
@@ -1610,7 +1612,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>32</v>
@@ -1664,10 +1666,10 @@
         <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>36</v>
@@ -1734,7 +1736,7 @@
         <v>190</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1839,7 +1841,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1870,7 +1872,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -1924,10 +1926,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -1944,10 +1946,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -1967,7 +1969,7 @@
         <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>192</v>
@@ -2016,7 +2018,7 @@
         <v>27</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -2201,10 +2203,10 @@
         <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2239,7 +2241,7 @@
         <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2285,13 +2287,13 @@
     </row>
     <row r="13" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2302,7 +2304,7 @@
         <v>160</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2358,13 +2360,13 @@
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>47</v>
@@ -2378,13 +2380,13 @@
     </row>
     <row r="3" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>47</v>
@@ -2433,7 +2435,7 @@
         <v>109</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -2485,10 +2487,10 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -2538,10 +2540,10 @@
         <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -2552,7 +2554,7 @@
         <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2574,7 +2576,7 @@
         <v>200</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2587,8 +2589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42467D9A-CBAF-49BD-9F64-5257C4006C93}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2625,7 +2627,7 @@
         <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>161</v>
@@ -2645,7 +2647,7 @@
         <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>167</v>
@@ -2711,7 +2713,7 @@
         <v>119</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2744,7 +2746,7 @@
         <v>198</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/a.xlsx
+++ b/漢字（かんじ）/a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4D1B91-CE11-4654-A7C6-E2AB55D79343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4B3707-39BE-4C44-B968-D3012973E977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="あ" sheetId="1" r:id="rId1"/>
@@ -1084,6 +1084,50 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>音楽｜おんがく
+音楽会｜おんがくかい
+発音｜はつおん
+音響｜おんきょう
+声音｜せいおん
+静音｜せいおん</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>意味｜いみ
+意見｜いけん
+意識｜いしき
+生意気｜なまいき
+得意｜とくい
+意義｜いぎ
+意外｜いがい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把握｜はあく
+握手｜あくしゅ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一応｜いちおう
+対応｜たいおう
+応援｜おうえん
+応援団｜おうえんだん
+応対｜おうたい
+応募｜おうぼ
+応用｜おうよう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>案内｜あんない
+案外｜あんがい
+事案｜じあん
+図案｜ずあん
+立案｜りつあん
+答案｜とうあん
+答案用紙｜とうあんようし</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>支援｜しえん
 個別支援｜こべつしえん
 応援｜おうえん
@@ -1092,51 +1136,8 @@
 応援歌｜おうえんか
 後援｜こうえん
 後援会｜こうえんかい
-声援｜せいえん</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>音楽｜おんがく
-音楽会｜おんがくかい
-発音｜はつおん
-音響｜おんきょう
-声音｜せいおん
-静音｜せいおん</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>意味｜いみ
-意見｜いけん
-意識｜いしき
-生意気｜なまいき
-得意｜とくい
-意義｜いぎ
-意外｜いがい</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>把握｜はあく
-握手｜あくしゅ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一応｜いちおう
-対応｜たいおう
-応援｜おうえん
-応援団｜おうえんだん
-応対｜おうたい
-応募｜おうぼ
-応用｜おうよう</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>案内｜あんない
-案外｜あんがい
-事案｜じあん
-図案｜ずあん
-立案｜りつあん
-答案｜とうあん
-答案用紙｜とうあんようし</t>
+声援｜せいえん
+援助｜えんじょ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1517,7 +1518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1555,7 +1556,7 @@
         <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>29</v>
@@ -1736,7 +1737,7 @@
         <v>190</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1872,7 +1873,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -2328,7 +2329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E04B2A-2B3C-4424-931A-C42D6C76EC36}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -2568,7 +2569,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="162" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="180" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>200</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2647,7 +2648,7 @@
         <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>167</v>
@@ -2746,7 +2747,7 @@
         <v>198</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/a.xlsx
+++ b/漢字（かんじ）/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4B3707-39BE-4C44-B968-D3012973E977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A281AF-443C-48A0-A459-F7A046903D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -835,15 +835,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>相違｜そうい
-相違点｜そういてん
-違反｜いはん
-違約｜いやく
-違約金｜いやくきん
-違和感｜いわかんｎ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>気圧｜きあつ
 圧力｜あつりょく
 圧力鍋｜あつりょくなべ</t>
@@ -1043,11 +1034,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>栄養｜えいよう
-栄冠｜えいかん</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>運動｜うんどう
 運動場｜うんどうじょう
 命運｜めいうん
@@ -1138,6 +1124,22 @@
 後援会｜こうえんかい
 声援｜せいえん
 援助｜えんじょ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相違｜そうい
+相違点｜そういてん
+違反｜いはん
+違約｜いやく
+違約金｜いやくきん
+違和感｜いわかんｎ
+違法｜いほう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>栄養｜えいよう
+栄冠｜えいかん
+光栄｜こうえい</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1556,7 +1558,7 @@
         <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>29</v>
@@ -1576,7 +1578,7 @@
         <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
@@ -1593,7 +1595,7 @@
         <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>136</v>
@@ -1602,7 +1604,7 @@
         <v>137</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1613,7 +1615,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>32</v>
@@ -1667,10 +1669,10 @@
         <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>36</v>
@@ -1734,10 +1736,10 @@
         <v>122</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1753,13 +1755,13 @@
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1772,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA29664E-66AA-45E6-B520-2E08C5DE1813}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1842,7 +1844,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1873,7 +1875,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -1927,10 +1929,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -1947,10 +1949,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -1970,16 +1972,16 @@
         <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1993,13 +1995,13 @@
         <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -2019,7 +2021,7 @@
         <v>27</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -2079,7 +2081,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="108" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="126" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -2087,7 +2089,7 @@
         <v>130</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>100</v>
@@ -2141,10 +2143,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2204,10 +2206,10 @@
         <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2242,7 +2244,7 @@
         <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2288,13 +2290,13 @@
     </row>
     <row r="13" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2305,18 +2307,18 @@
         <v>160</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2329,8 +2331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E04B2A-2B3C-4424-931A-C42D6C76EC36}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2361,13 +2363,13 @@
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>47</v>
@@ -2381,13 +2383,13 @@
     </row>
     <row r="3" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>47</v>
@@ -2436,7 +2438,7 @@
         <v>109</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -2483,15 +2485,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -2533,7 +2535,7 @@
         <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2541,10 +2543,10 @@
         <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -2555,7 +2557,7 @@
         <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2574,10 +2576,10 @@
         <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2628,7 +2630,7 @@
         <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>161</v>
@@ -2648,7 +2650,7 @@
         <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>167</v>
@@ -2688,7 +2690,7 @@
         <v>179</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>175</v>
@@ -2714,7 +2716,7 @@
         <v>119</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -2744,10 +2746,10 @@
         <v>146</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/a.xlsx
+++ b/漢字（かんじ）/a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A281AF-443C-48A0-A459-F7A046903D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BBD156-5980-453F-BA6F-4B649DE55919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="あ" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="241">
   <si>
     <t>椅</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1140,6 +1140,14 @@
     <t>栄養｜えいよう
 栄冠｜えいかん
 光栄｜こうえい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>領域｜りょういき</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1774,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA29664E-66AA-45E6-B520-2E08C5DE1813}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2147,6 +2155,15 @@
       </c>
       <c r="C19" s="1" t="s">
         <v>185</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2331,8 +2348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E04B2A-2B3C-4424-931A-C42D6C76EC36}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
